--- a/ExcelReportGenerator.Samples/Reports/Templates/EnumerableConnect.xlsx
+++ b/ExcelReportGenerator.Samples/Reports/Templates/EnumerableConnect.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="d_Data" comment="DataSource=m:DataProvider:GetEmployeesAsIEnumerable(); GroupBy=1;">Sheet1!$B$6:$J$6</definedName>
-    <definedName name="t_Rate" comment="DataSource=m:DataProvider:GetEmployeesAsIDataReader()">Sheet1!$B$7:$J$7</definedName>
+    <definedName name="t_Totals" comment="DataSource=m:DataProvider:GetEmployeesAsIDataReader()">Sheet1!$B$7:$J$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -85,13 +85,13 @@
     <t>{Sum(di:Rate)}</t>
   </si>
   <si>
-    <t>Some totals</t>
-  </si>
-  <si>
     <t>{Max(di:BirthDate)}</t>
   </si>
   <si>
     <t>{Min(di:HireDate)}</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -137,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +147,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,17 +277,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -301,6 +304,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +618,7 @@
   <dimension ref="A2:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,46 +632,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -674,36 +686,36 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -727,37 +739,37 @@
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ExcelReportGenerator.Samples/Reports/Templates/EnumerableConnect.xlsx
+++ b/ExcelReportGenerator.Samples/Reports/Templates/EnumerableConnect.xlsx
@@ -76,9 +76,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>{m:ConvertGender(di:Gender)}</t>
-  </si>
-  <si>
     <t>Report time: {sf:Format(sv:RenderDate, "g")}</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>{m:ConvertGender(di:Sex)}</t>
   </si>
 </sst>
 </file>
@@ -290,6 +290,15 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -304,15 +313,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,7 +618,7 @@
   <dimension ref="A2:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B2" sqref="B2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,46 +632,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="B3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -686,36 +686,36 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -731,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>14</v>
@@ -744,22 +744,22 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
